--- a/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
+++ b/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>Serie</t>
   </si>
@@ -590,6 +590,96 @@
   </si>
   <si>
     <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>07-08-2021</t>
+  </si>
+  <si>
+    <t>08-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>14-08-2021</t>
+  </si>
+  <si>
+    <t>15-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>21-08-2021</t>
+  </si>
+  <si>
+    <t>22-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>28-08-2021</t>
+  </si>
+  <si>
+    <t>29-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
   </si>
 </sst>
 </file>
@@ -947,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3043,6 +3133,336 @@
         <v>0</v>
       </c>
     </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191">
+        <v>449</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192">
+        <v>449</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193">
+        <v>449</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194">
+        <v>449</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195">
+        <v>449</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196">
+        <v>449</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197">
+        <v>449</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198">
+        <v>449</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199">
+        <v>449</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200">
+        <v>449</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201">
+        <v>449</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202">
+        <v>449</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203">
+        <v>449</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204">
+        <v>449</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205">
+        <v>449</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206">
+        <v>449</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207">
+        <v>449</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208">
+        <v>449</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209">
+        <v>449</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210">
+        <v>449</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211">
+        <v>449</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212">
+        <v>449</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213">
+        <v>449</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214">
+        <v>449</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215">
+        <v>449</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216">
+        <v>449</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217">
+        <v>449</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218">
+        <v>449</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219">
+        <v>449</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220">
+        <v>449</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
+++ b/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t>Serie</t>
   </si>
@@ -680,6 +680,18 @@
   </si>
   <si>
     <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>04-09-2021</t>
+  </si>
+  <si>
+    <t>05-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C220"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3463,6 +3475,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221">
+        <v>449</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222">
+        <v>449</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223">
+        <v>449</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224">
+        <v>449</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
+++ b/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>Serie</t>
   </si>
@@ -692,6 +692,30 @@
   </si>
   <si>
     <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>11-09-2021</t>
+  </si>
+  <si>
+    <t>12-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3519,6 +3543,94 @@
         <v>0</v>
       </c>
     </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225">
+        <v>449</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226">
+        <v>449</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227">
+        <v>449</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228">
+        <v>449</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229">
+        <v>449</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230">
+        <v>449</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231">
+        <v>449</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232">
+        <v>449</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
+++ b/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t>Serie</t>
   </si>
@@ -716,6 +716,9 @@
   </si>
   <si>
     <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C232"/>
+  <dimension ref="A1:C233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3631,6 +3634,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233">
+        <v>449</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
+++ b/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>Serie</t>
   </si>
@@ -719,6 +719,48 @@
   </si>
   <si>
     <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>17-09-2021</t>
+  </si>
+  <si>
+    <t>18-09-2021</t>
+  </si>
+  <si>
+    <t>19-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>25-09-2021</t>
+  </si>
+  <si>
+    <t>26-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C233"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3645,6 +3687,160 @@
         <v>0</v>
       </c>
     </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234">
+        <v>449</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235">
+        <v>449</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236">
+        <v>449</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237">
+        <v>449</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238">
+        <v>449</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239">
+        <v>449</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240">
+        <v>449</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241">
+        <v>449</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242">
+        <v>449</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243">
+        <v>449</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244">
+        <v>449</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245">
+        <v>449</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246">
+        <v>449</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247">
+        <v>449</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
+++ b/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>Serie</t>
   </si>
@@ -761,6 +761,9 @@
   </si>
   <si>
     <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C247"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3841,6 +3844,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248">
+        <v>449</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
+++ b/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>Serie</t>
   </si>
@@ -764,6 +764,21 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>02-10-2021</t>
+  </si>
+  <si>
+    <t>03-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:C253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3855,6 +3870,61 @@
         <v>0</v>
       </c>
     </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249">
+        <v>449</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250">
+        <v>449</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251">
+        <v>449</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252">
+        <v>449</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253">
+        <v>449</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
+++ b/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t>Serie</t>
   </si>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1139,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C253"/>
+  <dimension ref="A1:C254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3925,6 +3928,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254">
+        <v>449</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
+++ b/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
   <si>
     <t>Serie</t>
   </si>
@@ -782,6 +782,9 @@
   </si>
   <si>
     <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C254"/>
+  <dimension ref="A1:C255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3939,6 +3942,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255">
+        <v>449</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
+++ b/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>Serie</t>
   </si>
@@ -785,6 +785,24 @@
   </si>
   <si>
     <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>09-10-2021</t>
+  </si>
+  <si>
+    <t>10-10-2021</t>
+  </si>
+  <si>
+    <t>11-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C255"/>
+  <dimension ref="A1:C261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3953,6 +3971,72 @@
         <v>0</v>
       </c>
     </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256">
+        <v>449</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257">
+        <v>449</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258">
+        <v>449</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259">
+        <v>449</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260">
+        <v>449</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261">
+        <v>449</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
+++ b/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t>Serie</t>
   </si>
@@ -803,6 +803,48 @@
   </si>
   <si>
     <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>16-10-2021</t>
+  </si>
+  <si>
+    <t>17-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>23-10-2021</t>
+  </si>
+  <si>
+    <t>24-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C261"/>
+  <dimension ref="A1:C275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4037,6 +4079,160 @@
         <v>0</v>
       </c>
     </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262">
+        <v>449</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263">
+        <v>449</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264">
+        <v>449</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265">
+        <v>449</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266">
+        <v>449</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267">
+        <v>449</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268">
+        <v>449</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269">
+        <v>449</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270">
+        <v>449</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271">
+        <v>449</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272">
+        <v>449</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273">
+        <v>449</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274">
+        <v>449</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275">
+        <v>449</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
+++ b/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
   <si>
     <t>Serie</t>
   </si>
@@ -845,6 +845,21 @@
   </si>
   <si>
     <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>30-10-2021</t>
+  </si>
+  <si>
+    <t>31-10-2021</t>
+  </si>
+  <si>
+    <t>01-11-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C275"/>
+  <dimension ref="A1:C280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4233,6 +4248,61 @@
         <v>0</v>
       </c>
     </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276">
+        <v>449</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277">
+        <v>449</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278">
+        <v>449</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>280</v>
+      </c>
+      <c r="B279">
+        <v>449</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>281</v>
+      </c>
+      <c r="B280">
+        <v>449</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
+++ b/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t>Serie</t>
   </si>
@@ -860,6 +860,9 @@
   </si>
   <si>
     <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C280"/>
+  <dimension ref="A1:C281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4303,6 +4306,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281">
+        <v>449</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
+++ b/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
   <si>
     <t>Serie</t>
   </si>
@@ -863,6 +863,9 @@
   </si>
   <si>
     <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C281"/>
+  <dimension ref="A1:C282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4317,6 +4320,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282">
+        <v>449</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
+++ b/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>Serie</t>
   </si>
@@ -866,6 +866,9 @@
   </si>
   <si>
     <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C282"/>
+  <dimension ref="A1:C283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4331,6 +4334,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>284</v>
+      </c>
+      <c r="B283">
+        <v>449</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
+++ b/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <si>
     <t>Serie</t>
   </si>
@@ -869,6 +869,15 @@
   </si>
   <si>
     <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>06-11-2021</t>
+  </si>
+  <si>
+    <t>07-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C283"/>
+  <dimension ref="A1:C286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4345,6 +4354,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284">
+        <v>449</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285">
+        <v>449</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>287</v>
+      </c>
+      <c r="B286">
+        <v>449</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
